--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/MASSACHUSETTS_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/MASSACHUSETTS_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chilon</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -759,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -772,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -785,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -798,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Union Juarez</t>
@@ -811,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -824,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtemoc</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Zapotitlan Tablas</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Chapulhuacan</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Union De San Antonio</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Villa Del Carbon</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Xonacatlan</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Pajacuaran</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -1836,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -1849,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1862,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1875,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1888,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1901,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1932,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1945,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -1958,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tetela Del Volcan</t>
@@ -1971,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Matias Romero Avendaño</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2059,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -2072,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2085,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2098,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Lorenzo Cacaotepec</t>
@@ -2111,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Martin Zacatepec</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Santa Maria Tonameca</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Santiago Huajolotitlan</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2207,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -2220,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -2233,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -2246,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -2285,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2298,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -2311,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -2324,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -2337,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2350,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -2363,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -2376,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -2389,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -2402,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -2415,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -2428,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2441,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2472,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2503,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -2516,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -2529,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Vanegas</t>
@@ -2542,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -2555,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2586,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -2599,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -2612,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2643,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2674,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2705,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -2718,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2731,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2762,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -2775,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2788,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -2801,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2832,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -2845,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -2858,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2871,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2884,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -2897,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2910,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2923,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -2936,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Jesus Carranza</t>
@@ -2949,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -2962,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -2975,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2988,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3001,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -3014,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -3027,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -3040,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -3053,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -3066,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3079,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -3092,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3105,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -3118,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3149,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Total</t>
